--- a/media/export/Commandes.xlsx
+++ b/media/export/Commandes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>Date de commande</t>
   </si>
@@ -53,6 +53,102 @@
     <t>Statut</t>
   </si>
   <si>
+    <t>2013.11.27</t>
+  </si>
+  <si>
+    <t>Edouard</t>
+  </si>
+  <si>
+    <t>Bardet</t>
+  </si>
+  <si>
+    <t>FR-75014</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>iPhone 5 16 Go – blanc debloqué</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>2013.12.18</t>
+  </si>
+  <si>
+    <t>2014.01.10</t>
+  </si>
+  <si>
+    <t>HTC One Silver 32GB debloqué</t>
+  </si>
+  <si>
+    <t>EB-L1G6LLU</t>
+  </si>
+  <si>
+    <t>Batterie d'origine Samsung Galaxy S3/I9300 EB-L1G6LLU</t>
+  </si>
+  <si>
+    <t>Apple Iphone 5C blanc 16GB debloqué</t>
+  </si>
+  <si>
+    <t>Nokia Lumia 1520 Noir debloqué</t>
+  </si>
+  <si>
+    <t>pending_payment</t>
+  </si>
+  <si>
+    <t>Nokia Lumia 1020 Blanc debloqué</t>
+  </si>
+  <si>
+    <t>BlackBerry Z30 Noir debloqué</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>2014.01.11</t>
+  </si>
+  <si>
+    <t>Mourad</t>
+  </si>
+  <si>
+    <t>Nouri</t>
+  </si>
+  <si>
+    <t>FR-17520</t>
+  </si>
+  <si>
+    <t>Jarnac Champagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mourad </t>
+  </si>
+  <si>
+    <t>FR-16000</t>
+  </si>
+  <si>
+    <t>Angoulême</t>
+  </si>
+  <si>
+    <t>2014.01.16</t>
+  </si>
+  <si>
+    <t>franck</t>
+  </si>
+  <si>
+    <t>duralin</t>
+  </si>
+  <si>
+    <t>FR-19100</t>
+  </si>
+  <si>
+    <t>BlackBerry Z10 4G LTE Noir debloqué</t>
+  </si>
+  <si>
     <t>2014.01.24</t>
   </si>
   <si>
@@ -98,7 +194,7 @@
     <t>UZAN</t>
   </si>
   <si>
-    <t>HTC Desire 200 (102e) Black</t>
+    <t>HTC Desire 200 (102e) Black debloqué</t>
   </si>
   <si>
     <t>marco</t>
@@ -137,9 +233,6 @@
     <t>NICE</t>
   </si>
   <si>
-    <t>Nokia Lumia 1520 Noir</t>
-  </si>
-  <si>
     <t>FLORENCE</t>
   </si>
   <si>
@@ -200,9 +293,6 @@
     <t>GRAULHET</t>
   </si>
   <si>
-    <t>BlackBerry Z10 4G LTE Noir</t>
-  </si>
-  <si>
     <t>DELPHINE</t>
   </si>
   <si>
@@ -281,9 +371,6 @@
     <t>LA CIOTAT</t>
   </si>
   <si>
-    <t>HTC One Silver 32GB</t>
-  </si>
-  <si>
     <t>TANGUY</t>
   </si>
   <si>
@@ -293,7 +380,7 @@
     <t>VENDARGUES</t>
   </si>
   <si>
-    <t>Samsung i8190 Galaxy S III mini noir</t>
+    <t>Samsung i8190 Galaxy S III mini noir debloqué</t>
   </si>
   <si>
     <t>FOUZI</t>
@@ -308,9 +395,6 @@
     <t>ROUBAIX</t>
   </si>
   <si>
-    <t>Nokia Lumia 1020 Blanc</t>
-  </si>
-  <si>
     <t>FREDERIQUE</t>
   </si>
   <si>
@@ -345,6 +429,12 @@
   </si>
   <si>
     <t>MONTIGNY LENCOUP</t>
+  </si>
+  <si>
+    <t>2014.03.07</t>
+  </si>
+  <si>
+    <t>iPhone 4 8GB Noir debloqué reconditionné</t>
   </si>
 </sst>
 </file>
@@ -705,7 +795,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1"/>
   </sheetViews>
@@ -717,11 +807,11 @@
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="47.131348" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="63.555908" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="18.709717" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -767,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>200000014</v>
+        <v>200000001</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -782,19 +872,19 @@
         <v>16</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>10000012</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="2">
-        <v>337.33</v>
+        <v>750</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" s="2">
-        <v>337.33</v>
+        <v>750</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -802,37 +892,37 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B3">
-        <v>200000015</v>
+        <v>200000002</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>10000012</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="2">
-        <v>337.33</v>
+        <v>750</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>337.33</v>
+        <v>750</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
@@ -840,37 +930,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>200000016</v>
+        <v>200000003</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>10000013</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2">
-        <v>87.08</v>
+        <v>390.47</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" s="2">
-        <v>87.08</v>
+        <v>390.47</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -878,37 +968,37 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>200000017</v>
+        <v>200000003</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I5" s="2">
-        <v>87.08</v>
+        <v>16.72</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>87.08</v>
+        <v>16.72</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
@@ -916,37 +1006,37 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>200000018</v>
+        <v>200000003</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>10000016</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
-        <v>306.67</v>
+        <v>438.96</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2">
-        <v>306.67</v>
+        <v>1316.88</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -954,303 +1044,303 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>200000019</v>
+        <v>200000004</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>10000022</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2">
-        <v>425</v>
+        <v>438.13</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>425</v>
+        <v>438.13</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>200000020</v>
+        <v>200000005</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>22</v>
+        <v>10000020</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2">
-        <v>425</v>
+        <v>428.09</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>425</v>
+        <v>428.09</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>200000021</v>
+        <v>200000006</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>10000018</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2">
-        <v>425</v>
+        <v>387.12</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>425</v>
+        <v>387.12</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>200000022</v>
+        <v>200000007</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>10000018</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="2">
-        <v>79.17</v>
+        <v>387.12</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>79.17</v>
+        <v>387.12</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>200000023</v>
+        <v>200000007</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>10000016</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2">
-        <v>425</v>
+        <v>438.96</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>425</v>
+        <v>438.96</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>200000024</v>
+        <v>200000008</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>17</v>
+        <v>10000016</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I12" s="2">
-        <v>213.33</v>
+        <v>438.96</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>213.33</v>
+        <v>438.96</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>200000025</v>
+        <v>200000009</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>22</v>
+        <v>10000020</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I13" s="2">
-        <v>425</v>
+        <v>428.09</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" s="2">
-        <v>425</v>
+        <v>428.09</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>200000026</v>
+        <v>200000010</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14">
-        <v>17</v>
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2">
-        <v>213.33</v>
+        <v>16.72</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" s="2">
-        <v>213.33</v>
+        <v>16.72</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -1258,37 +1348,37 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>200000027</v>
+        <v>200000011</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I15" s="2">
-        <v>425</v>
+        <v>16.72</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" s="2">
-        <v>425</v>
+        <v>16.72</v>
       </c>
       <c r="L15" t="s">
         <v>18</v>
@@ -1296,344 +1386,1066 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B16">
-        <v>200000028</v>
+        <v>200000012</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>76</v>
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>19100</v>
       </c>
       <c r="G16">
-        <v>36</v>
+        <v>10000017</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I16" s="2">
-        <v>306.67</v>
+        <v>214.05</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" s="2">
-        <v>306.67</v>
+        <v>214.05</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B17">
-        <v>200000029</v>
+        <v>200000013</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>19100</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>10000017</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I17" s="2">
-        <v>79.17</v>
+        <v>214.05</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>79.17</v>
+        <v>214.05</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>200000030</v>
+        <v>200000014</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G18">
-        <v>22</v>
+        <v>10000036</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I18" s="2">
-        <v>425</v>
+        <v>337.33</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" s="2">
-        <v>425</v>
+        <v>337.33</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B19">
-        <v>200000031</v>
+        <v>200000015</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>10000036</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="I19" s="2">
-        <v>389.17</v>
+        <v>337.33</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>389.17</v>
+        <v>337.33</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <v>200000032</v>
+        <v>200000016</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G20">
-        <v>38</v>
+        <v>10000014</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="I20" s="2">
-        <v>170.83</v>
+        <v>87.08</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <v>170.83</v>
+        <v>87.08</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>200000033</v>
+        <v>200000017</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="G21">
-        <v>20</v>
+        <v>10000014</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="I21" s="2">
-        <v>415.83</v>
+        <v>87.08</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" s="2">
-        <v>415.83</v>
+        <v>87.08</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B22">
-        <v>200000034</v>
+        <v>200000018</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="G22">
-        <v>14</v>
+        <v>10000036</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I22" s="2">
-        <v>79.17</v>
+        <v>306.67</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>79.17</v>
+        <v>306.67</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B23">
-        <v>200000035</v>
+        <v>200000019</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>10000022</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="I23" s="2">
-        <v>389.17</v>
+        <v>425</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>389.17</v>
+        <v>425</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B24">
+        <v>200000020</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24">
+        <v>10000022</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="2">
+        <v>425</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>425</v>
+      </c>
+      <c r="L24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>200000021</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25">
+        <v>10000022</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="2">
+        <v>425</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>425</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>200000022</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26">
+        <v>10000014</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="2">
+        <v>79.17</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>79.17</v>
+      </c>
+      <c r="L26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>200000023</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27">
+        <v>10000022</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="2">
+        <v>425</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>425</v>
+      </c>
+      <c r="L27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>200000024</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28">
+        <v>10000017</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="2">
+        <v>213.33</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>213.33</v>
+      </c>
+      <c r="L28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>200000025</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29">
+        <v>10000022</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="2">
+        <v>425</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>425</v>
+      </c>
+      <c r="L29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>200000026</v>
+      </c>
+      <c r="C30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30">
+        <v>10000017</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="2">
+        <v>213.33</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>213.33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>200000027</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31">
+        <v>10000022</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="2">
+        <v>425</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>425</v>
+      </c>
+      <c r="L31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>200000028</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32">
+        <v>10000036</v>
+      </c>
+      <c r="H32" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="2">
+        <v>306.67</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>306.67</v>
+      </c>
+      <c r="L32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33">
+        <v>200000029</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33">
+        <v>10000014</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="2">
+        <v>79.17</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>79.17</v>
+      </c>
+      <c r="L33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>200000030</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34">
+        <v>10000022</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="2">
+        <v>425</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>425</v>
+      </c>
+      <c r="L34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>200000031</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35">
+        <v>10000013</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="2">
+        <v>389.17</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>389.17</v>
+      </c>
+      <c r="L35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>200000032</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36">
+        <v>10000038</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" s="2">
+        <v>170.83</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>170.83</v>
+      </c>
+      <c r="L36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>200000033</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37">
+        <v>10000020</v>
+      </c>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="2">
+        <v>415.83</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>415.83</v>
+      </c>
+      <c r="L37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>200000034</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38">
+        <v>10000014</v>
+      </c>
+      <c r="H38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="2">
+        <v>79.17</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>79.17</v>
+      </c>
+      <c r="L38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>200000035</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39">
+        <v>10000013</v>
+      </c>
+      <c r="H39" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="2">
+        <v>389.17</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>389.17</v>
+      </c>
+      <c r="L39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
         <v>200000036</v>
       </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40">
+        <v>10000036</v>
+      </c>
+      <c r="H40" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="2">
         <v>306.67</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
         <v>306.67</v>
       </c>
-      <c r="L24" t="s">
-        <v>18</v>
+      <c r="L40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41">
+        <v>200000037</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>10000041</v>
+      </c>
+      <c r="H41" t="s">
+        <v>139</v>
+      </c>
+      <c r="I41" s="2">
+        <v>114.17</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>114.17</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42">
+        <v>200000038</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42">
+        <v>10000017</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="2">
+        <v>213.33</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>213.33</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43">
+        <v>200000039</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <v>10000016</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="2">
+        <v>437.5</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>437.5</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
